--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H2">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I2">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J2">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.305848666666667</v>
+        <v>1.428094</v>
       </c>
       <c r="N2">
-        <v>3.917546</v>
+        <v>4.284282</v>
       </c>
       <c r="O2">
-        <v>0.02167013056939775</v>
+        <v>0.01363994948788035</v>
       </c>
       <c r="P2">
-        <v>0.02198205808172309</v>
+        <v>0.01373582358494966</v>
       </c>
       <c r="Q2">
-        <v>1.475711720095111</v>
+        <v>0.6248130224413333</v>
       </c>
       <c r="R2">
-        <v>13.281405480856</v>
+        <v>5.623317201972</v>
       </c>
       <c r="S2">
-        <v>0.0002014019463132338</v>
+        <v>3.458390644968269E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002055486638252043</v>
+        <v>3.510751283612532E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H3">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I3">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J3">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.728916</v>
       </c>
       <c r="O3">
-        <v>0.03722138509937334</v>
+        <v>0.02142297690679323</v>
       </c>
       <c r="P3">
-        <v>0.03775716286140246</v>
+        <v>0.02157355727142731</v>
       </c>
       <c r="Q3">
-        <v>2.534734807130667</v>
+        <v>0.9813346422373332</v>
       </c>
       <c r="R3">
-        <v>22.812613264176</v>
+        <v>8.832011780136</v>
       </c>
       <c r="S3">
-        <v>0.0003459351285162343</v>
+        <v>5.431766663627022E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003530576776359584</v>
+        <v>5.514004559998829E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H4">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I4">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J4">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.65227266666667</v>
+        <v>56.98919799999999</v>
       </c>
       <c r="N4">
-        <v>112.956818</v>
+        <v>170.967594</v>
       </c>
       <c r="O4">
-        <v>0.6248271225822742</v>
+        <v>0.5443127567756828</v>
       </c>
       <c r="P4">
-        <v>0.6338211048453863</v>
+        <v>0.5481386869322091</v>
       </c>
       <c r="Q4">
-        <v>42.55003009211644</v>
+        <v>24.93364795936933</v>
       </c>
       <c r="R4">
-        <v>382.950270829048</v>
+        <v>224.402831634324</v>
       </c>
       <c r="S4">
-        <v>0.005807136149658413</v>
+        <v>0.001380097593207761</v>
       </c>
       <c r="T4">
-        <v>0.005926700799389921</v>
+        <v>0.001400992511911322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H5">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I5">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J5">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.5652985</v>
+        <v>2.19236</v>
       </c>
       <c r="N5">
-        <v>5.130597</v>
+        <v>4.38472</v>
       </c>
       <c r="O5">
-        <v>0.04257028770905066</v>
+        <v>0.0209395737670275</v>
       </c>
       <c r="P5">
-        <v>0.02878870630948921</v>
+        <v>0.01405783755350383</v>
       </c>
       <c r="Q5">
-        <v>2.898989108482</v>
+        <v>0.9591911161866665</v>
       </c>
       <c r="R5">
-        <v>17.393934650892</v>
+        <v>5.75514669712</v>
       </c>
       <c r="S5">
-        <v>0.0003956477683537748</v>
+        <v>5.309200454873862E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002691959093717346</v>
+        <v>3.593055118286223E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H6">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I6">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J6">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.49391266666667</v>
+        <v>41.84673733333333</v>
       </c>
       <c r="N6">
-        <v>49.481738</v>
+        <v>125.540212</v>
       </c>
       <c r="O6">
-        <v>0.2737110740399041</v>
+        <v>0.399684743062616</v>
       </c>
       <c r="P6">
-        <v>0.2776509679019989</v>
+        <v>0.4024940946579102</v>
       </c>
       <c r="Q6">
-        <v>18.63941883446311</v>
+        <v>18.30858923330577</v>
       </c>
       <c r="R6">
-        <v>167.754769510168</v>
+        <v>164.777303099752</v>
       </c>
       <c r="S6">
-        <v>0.002543867599809038</v>
+        <v>0.001013395231098544</v>
       </c>
       <c r="T6">
-        <v>0.002596243957224455</v>
+        <v>0.001028738211966414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J7">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.305848666666667</v>
+        <v>1.428094</v>
       </c>
       <c r="N7">
-        <v>3.917546</v>
+        <v>4.284282</v>
       </c>
       <c r="O7">
-        <v>0.02167013056939775</v>
+        <v>0.01363994948788035</v>
       </c>
       <c r="P7">
-        <v>0.02198205808172309</v>
+        <v>0.01373582358494966</v>
       </c>
       <c r="Q7">
-        <v>1.311539119873111</v>
+        <v>1.434317157620667</v>
       </c>
       <c r="R7">
-        <v>11.803852078858</v>
+        <v>12.908854418586</v>
       </c>
       <c r="S7">
-        <v>0.0001789960246377698</v>
+        <v>7.939061545885994E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001826814207500008</v>
+        <v>8.0592603248711E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J8">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.728916</v>
       </c>
       <c r="O8">
-        <v>0.03722138509937334</v>
+        <v>0.02142297690679323</v>
       </c>
       <c r="P8">
-        <v>0.03775716286140246</v>
+        <v>0.02157355727142731</v>
       </c>
       <c r="Q8">
         <v>2.252746124318667</v>
@@ -948,10 +948,10 @@
         <v>20.274715118868</v>
       </c>
       <c r="S8">
-        <v>0.0003074499225079893</v>
+        <v>0.0001246913211154098</v>
       </c>
       <c r="T8">
-        <v>0.0003137800896243241</v>
+        <v>0.0001265791695042258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J9">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.65227266666667</v>
+        <v>56.98919799999999</v>
       </c>
       <c r="N9">
-        <v>112.956818</v>
+        <v>170.967594</v>
       </c>
       <c r="O9">
-        <v>0.6248271225822742</v>
+        <v>0.5443127567756828</v>
       </c>
       <c r="P9">
-        <v>0.6338211048453863</v>
+        <v>0.5481386869322091</v>
       </c>
       <c r="Q9">
-        <v>37.81634872019045</v>
+        <v>57.23753792848466</v>
       </c>
       <c r="R9">
-        <v>340.347138481714</v>
+        <v>515.1378413563619</v>
       </c>
       <c r="S9">
-        <v>0.005161093546248617</v>
+        <v>0.003168144046349071</v>
       </c>
       <c r="T9">
-        <v>0.005267356655324345</v>
+        <v>0.003216110300775883</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J10">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.5652985</v>
+        <v>2.19236</v>
       </c>
       <c r="N10">
-        <v>5.130597</v>
+        <v>4.38472</v>
       </c>
       <c r="O10">
-        <v>0.04257028770905066</v>
+        <v>0.0209395737670275</v>
       </c>
       <c r="P10">
-        <v>0.02878870630948921</v>
+        <v>0.01405783755350383</v>
       </c>
       <c r="Q10">
-        <v>2.5764772157635</v>
+        <v>2.201913574093333</v>
       </c>
       <c r="R10">
-        <v>15.458863294581</v>
+        <v>13.21148144456</v>
       </c>
       <c r="S10">
-        <v>0.0003516320422345269</v>
+        <v>0.0001218776983219495</v>
       </c>
       <c r="T10">
-        <v>0.0002392479244036169</v>
+        <v>8.248196531336827E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J11">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.49391266666667</v>
+        <v>41.84673733333333</v>
       </c>
       <c r="N11">
-        <v>49.481738</v>
+        <v>125.540212</v>
       </c>
       <c r="O11">
-        <v>0.2737110740399041</v>
+        <v>0.399684743062616</v>
       </c>
       <c r="P11">
-        <v>0.2776509679019989</v>
+        <v>0.4024940946579102</v>
       </c>
       <c r="Q11">
-        <v>16.56578764009711</v>
+        <v>42.02909146571955</v>
       </c>
       <c r="R11">
-        <v>149.092088760874</v>
+        <v>378.261823191476</v>
       </c>
       <c r="S11">
-        <v>0.002260862895845428</v>
+        <v>0.002326344226527515</v>
       </c>
       <c r="T11">
-        <v>0.002307412395162508</v>
+        <v>0.002361565484595801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H12">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I12">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J12">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.305848666666667</v>
+        <v>1.428094</v>
       </c>
       <c r="N12">
-        <v>3.917546</v>
+        <v>4.284282</v>
       </c>
       <c r="O12">
-        <v>0.02167013056939775</v>
+        <v>0.01363994948788035</v>
       </c>
       <c r="P12">
-        <v>0.02198205808172309</v>
+        <v>0.01373582358494966</v>
       </c>
       <c r="Q12">
-        <v>89.02695150204956</v>
+        <v>142.2103983485146</v>
       </c>
       <c r="R12">
-        <v>801.242563518446</v>
+        <v>1279.893585136632</v>
       </c>
       <c r="S12">
-        <v>0.0121502059397421</v>
+        <v>0.007871460638640792</v>
       </c>
       <c r="T12">
-        <v>0.01240036971753408</v>
+        <v>0.0079906359280784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H13">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I13">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J13">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.728916</v>
       </c>
       <c r="O13">
-        <v>0.03722138509937334</v>
+        <v>0.02142297690679323</v>
       </c>
       <c r="P13">
-        <v>0.03775716286140246</v>
+        <v>0.02157355727142731</v>
       </c>
       <c r="Q13">
-        <v>152.9158504822573</v>
+        <v>223.3564048336906</v>
       </c>
       <c r="R13">
-        <v>1376.242654340316</v>
+        <v>2010.207643503216</v>
       </c>
       <c r="S13">
-        <v>0.0208696247985922</v>
+        <v>0.01236295776858765</v>
       </c>
       <c r="T13">
-        <v>0.02129931497887468</v>
+        <v>0.01255013510936526</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H14">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I14">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J14">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.65227266666667</v>
+        <v>56.98919799999999</v>
       </c>
       <c r="N14">
-        <v>112.956818</v>
+        <v>170.967594</v>
       </c>
       <c r="O14">
-        <v>0.6248271225822742</v>
+        <v>0.5443127567756828</v>
       </c>
       <c r="P14">
-        <v>0.6338211048453863</v>
+        <v>0.5481386869322091</v>
       </c>
       <c r="Q14">
-        <v>2566.964410350724</v>
+        <v>5675.016174805281</v>
       </c>
       <c r="R14">
-        <v>23102.67969315652</v>
+        <v>51075.14557324754</v>
       </c>
       <c r="S14">
-        <v>0.3503337551104614</v>
+        <v>0.3141167380331452</v>
       </c>
       <c r="T14">
-        <v>0.357546868707147</v>
+        <v>0.3188725203321166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H15">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I15">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J15">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.5652985</v>
+        <v>2.19236</v>
       </c>
       <c r="N15">
-        <v>5.130597</v>
+        <v>4.38472</v>
       </c>
       <c r="O15">
-        <v>0.04257028770905066</v>
+        <v>0.0209395737670275</v>
       </c>
       <c r="P15">
-        <v>0.02878870630948921</v>
+        <v>0.01405783755350383</v>
       </c>
       <c r="Q15">
-        <v>174.8906370067745</v>
+        <v>218.3164335984533</v>
       </c>
       <c r="R15">
-        <v>1049.343822040647</v>
+        <v>1309.89860159072</v>
       </c>
       <c r="S15">
-        <v>0.02386869617248515</v>
+        <v>0.01208399128189778</v>
       </c>
       <c r="T15">
-        <v>0.01624009001340921</v>
+        <v>0.008177963347548998</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H16">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I16">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J16">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.49391266666667</v>
+        <v>41.84673733333333</v>
       </c>
       <c r="N16">
-        <v>49.481738</v>
+        <v>125.540212</v>
       </c>
       <c r="O16">
-        <v>0.2737110740399041</v>
+        <v>0.399684743062616</v>
       </c>
       <c r="P16">
-        <v>0.2776509679019989</v>
+        <v>0.4024940946579102</v>
       </c>
       <c r="Q16">
-        <v>1124.481573199938</v>
+        <v>4167.12148203059</v>
       </c>
       <c r="R16">
-        <v>10120.33415879944</v>
+        <v>37504.09333827531</v>
       </c>
       <c r="S16">
-        <v>0.1534668149286218</v>
+        <v>0.2306535464576376</v>
       </c>
       <c r="T16">
-        <v>0.1566265834443694</v>
+        <v>0.2341456814527566</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H17">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I17">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J17">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.305848666666667</v>
+        <v>1.428094</v>
       </c>
       <c r="N17">
-        <v>3.917546</v>
+        <v>4.284282</v>
       </c>
       <c r="O17">
-        <v>0.02167013056939775</v>
+        <v>0.01363994948788035</v>
       </c>
       <c r="P17">
-        <v>0.02198205808172309</v>
+        <v>0.01373582358494966</v>
       </c>
       <c r="Q17">
-        <v>2.891376165668</v>
+        <v>5.907070197161</v>
       </c>
       <c r="R17">
-        <v>17.348256994008</v>
+        <v>35.442421182966</v>
       </c>
       <c r="S17">
-        <v>0.000394608770371288</v>
+        <v>0.0003269611159705084</v>
       </c>
       <c r="T17">
-        <v>0.0002684889825820432</v>
+        <v>0.000221274242930487</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H18">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I18">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J18">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>6.728916</v>
       </c>
       <c r="O18">
-        <v>0.03722138509937334</v>
+        <v>0.02142297690679323</v>
       </c>
       <c r="P18">
-        <v>0.03775716286140246</v>
+        <v>0.02157355727142731</v>
       </c>
       <c r="Q18">
-        <v>4.966330285128</v>
+        <v>9.277675737217999</v>
       </c>
       <c r="R18">
-        <v>29.797981710768</v>
+        <v>55.666054423308</v>
       </c>
       <c r="S18">
-        <v>0.0006777940242926787</v>
+        <v>0.0005135268604241761</v>
       </c>
       <c r="T18">
-        <v>0.0004611662021888273</v>
+        <v>0.0003475344978791875</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H19">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I19">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J19">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.65227266666667</v>
+        <v>56.98919799999999</v>
       </c>
       <c r="N19">
-        <v>112.956818</v>
+        <v>170.967594</v>
       </c>
       <c r="O19">
-        <v>0.6248271225822742</v>
+        <v>0.5443127567756828</v>
       </c>
       <c r="P19">
-        <v>0.6338211048453863</v>
+        <v>0.5481386869322091</v>
       </c>
       <c r="Q19">
-        <v>83.36868317944401</v>
+        <v>235.726214847137</v>
       </c>
       <c r="R19">
-        <v>500.212099076664</v>
+        <v>1414.357289082822</v>
       </c>
       <c r="S19">
-        <v>0.01137797770748152</v>
+        <v>0.0130476367636474</v>
       </c>
       <c r="T19">
-        <v>0.007741494583733037</v>
+        <v>0.008830120176028765</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H20">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I20">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J20">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.5652985</v>
+        <v>2.19236</v>
       </c>
       <c r="N20">
-        <v>5.130597</v>
+        <v>4.38472</v>
       </c>
       <c r="O20">
-        <v>0.04257028770905066</v>
+        <v>0.0209395737670275</v>
       </c>
       <c r="P20">
-        <v>0.02878870630948921</v>
+        <v>0.01405783755350383</v>
       </c>
       <c r="Q20">
-        <v>5.680017240939</v>
+        <v>9.06832772734</v>
       </c>
       <c r="R20">
-        <v>22.720068963756</v>
+        <v>36.27331090936</v>
       </c>
       <c r="S20">
-        <v>0.0007751964776318973</v>
+        <v>0.0005019392786532986</v>
       </c>
       <c r="T20">
-        <v>0.0003516254227949035</v>
+        <v>0.0002264616564600941</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H21">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I21">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J21">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.49391266666667</v>
+        <v>41.84673733333333</v>
       </c>
       <c r="N21">
-        <v>49.481738</v>
+        <v>125.540212</v>
       </c>
       <c r="O21">
-        <v>0.2737110740399041</v>
+        <v>0.399684743062616</v>
       </c>
       <c r="P21">
-        <v>0.2776509679019989</v>
+        <v>0.4024940946579102</v>
       </c>
       <c r="Q21">
-        <v>36.520392584804</v>
+        <v>173.0919778040926</v>
       </c>
       <c r="R21">
-        <v>219.122355508824</v>
+        <v>1038.551866824556</v>
       </c>
       <c r="S21">
-        <v>0.004984224253656303</v>
+        <v>0.00958078105379016</v>
       </c>
       <c r="T21">
-        <v>0.003391230502975899</v>
+        <v>0.006483890501986759</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H22">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I22">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J22">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.305848666666667</v>
+        <v>1.428094</v>
       </c>
       <c r="N22">
-        <v>3.917546</v>
+        <v>4.284282</v>
       </c>
       <c r="O22">
-        <v>0.02167013056939775</v>
+        <v>0.01363994948788035</v>
       </c>
       <c r="P22">
-        <v>0.02198205808172309</v>
+        <v>0.01373582358494966</v>
       </c>
       <c r="Q22">
-        <v>64.07573539042289</v>
+        <v>96.25068322025066</v>
       </c>
       <c r="R22">
-        <v>576.681618513806</v>
+        <v>866.256148982256</v>
       </c>
       <c r="S22">
-        <v>0.008744917888333358</v>
+        <v>0.005327553211360512</v>
       </c>
       <c r="T22">
-        <v>0.008924969297031751</v>
+        <v>0.005408213297855942</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H23">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I23">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J23">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>6.728916</v>
       </c>
       <c r="O23">
-        <v>0.03722138509937334</v>
+        <v>0.02142297690679323</v>
       </c>
       <c r="P23">
-        <v>0.03775716286140246</v>
+        <v>0.02157355727142731</v>
       </c>
       <c r="Q23">
-        <v>110.0587564460973</v>
+        <v>151.1718328372587</v>
       </c>
       <c r="R23">
-        <v>990.5288080148761</v>
+        <v>1360.546495535328</v>
       </c>
       <c r="S23">
-        <v>0.01502058122546424</v>
+        <v>0.008367483290029726</v>
       </c>
       <c r="T23">
-        <v>0.01532984391307867</v>
+        <v>0.008494168449078658</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H24">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I24">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J24">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.65227266666667</v>
+        <v>56.98919799999999</v>
       </c>
       <c r="N24">
-        <v>112.956818</v>
+        <v>170.967594</v>
       </c>
       <c r="O24">
-        <v>0.6248271225822742</v>
+        <v>0.5443127567756828</v>
       </c>
       <c r="P24">
-        <v>0.6338211048453863</v>
+        <v>0.5481386869322091</v>
       </c>
       <c r="Q24">
-        <v>1847.531893872378</v>
+        <v>3840.958118775195</v>
       </c>
       <c r="R24">
-        <v>16627.7870448514</v>
+        <v>34568.62306897675</v>
       </c>
       <c r="S24">
-        <v>0.2521471600684244</v>
+        <v>0.2126001403393334</v>
       </c>
       <c r="T24">
-        <v>0.2573386840997919</v>
+        <v>0.2158189436113766</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H25">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I25">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J25">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.5652985</v>
+        <v>2.19236</v>
       </c>
       <c r="N25">
-        <v>5.130597</v>
+        <v>4.38472</v>
       </c>
       <c r="O25">
-        <v>0.04257028770905066</v>
+        <v>0.0209395737670275</v>
       </c>
       <c r="P25">
-        <v>0.02878870630948921</v>
+        <v>0.01405783755350383</v>
       </c>
       <c r="Q25">
-        <v>125.8747602836945</v>
+        <v>147.7606851262933</v>
       </c>
       <c r="R25">
-        <v>755.248561702167</v>
+        <v>886.56411075776</v>
       </c>
       <c r="S25">
-        <v>0.01717911524834531</v>
+        <v>0.008178673503605738</v>
       </c>
       <c r="T25">
-        <v>0.01168854703950974</v>
+        <v>0.005535000032998506</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H26">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I26">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J26">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.49391266666667</v>
+        <v>41.84673733333333</v>
       </c>
       <c r="N26">
-        <v>49.481738</v>
+        <v>125.540212</v>
       </c>
       <c r="O26">
-        <v>0.2737110740399041</v>
+        <v>0.399684743062616</v>
       </c>
       <c r="P26">
-        <v>0.2776509679019989</v>
+        <v>0.4024940946579102</v>
       </c>
       <c r="Q26">
-        <v>809.327765582391</v>
+        <v>2820.3865143833</v>
       </c>
       <c r="R26">
-        <v>7283.949890241518</v>
+        <v>25383.4786294497</v>
       </c>
       <c r="S26">
-        <v>0.1104553043619716</v>
+        <v>0.1561106760935623</v>
       </c>
       <c r="T26">
-        <v>0.1127294976022666</v>
+        <v>0.1584742190066046</v>
       </c>
     </row>
   </sheetData>
